--- a/spreadsheet/CubeSatSim TLM Analysis - Experimental.xlsx
+++ b/spreadsheet/CubeSatSim TLM Analysis - Experimental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajohns71\Dropbox\New CubeSat Sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C751518A-187A-2B42-97CC-27E9438D49DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B25E735-2DF7-4253-A0EB-7641839FF581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24320" windowHeight="15540" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18948" windowHeight="10164" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Graphs" sheetId="9" r:id="rId1"/>
@@ -23,12 +23,19 @@
     <sheet name="Explanation" sheetId="1" r:id="rId8"/>
     <sheet name="Sample Data" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="311">
   <si>
     <t>Function:</t>
   </si>
@@ -370,9 +377,6 @@
   </si>
   <si>
     <t>Battery Current</t>
-  </si>
-  <si>
-    <t>Temp</t>
   </si>
   <si>
     <t>Frame</t>
@@ -959,6 +963,12 @@
   <si>
     <t>Paste Telemetry Data into MultiMon Input Tab and it will appear here on even rows.</t>
   </si>
+  <si>
+    <t>Radio Temp</t>
+  </si>
+  <si>
+    <t>CPU Temp</t>
+  </si>
 </sst>
 </file>
 
@@ -3771,7 +3781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$J$1</c:f>
+              <c:f>Graphs!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3817,7 +3827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Graphs!$J$2:$J$80</c:f>
+              <c:f>Graphs!$K$2:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="79"/>
@@ -4281,7 +4291,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Temperature in Degrees Celcuis</a:t>
+              <a:t>Radio and CPU Temperature in Degrees Celcuis</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4319,7 +4329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Temp</c:v>
+                  <c:v>Radio Temp</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4609,6 +4619,284 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D9CE-413D-8859-8479B8F617C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Graphs!$A$2:$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graphs!$J$2:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-681F-4E1A-8069-D0E253919785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7310,15 +7598,318 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4109720" cy="2628540"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F29A477-94AF-4246-BD81-82E9D79A6FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7536180" y="243840"/>
+          <a:ext cx="4109720" cy="2628540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Instructions:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Copy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> your raw telemetry data fro Windows multimon-ng into the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MultiMon Input </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.  If you don't have any data, copy data from the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sample Data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tab.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The telemetry will be automatically calculated and plotted.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>See plots in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Voltage Graphs, Current Graphs,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> and</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Temperature Graph </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tabs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>To see raw data or create a new plot, go to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Graphs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -7351,7 +7942,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8014,7 +8605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -8725,7 +9316,7 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8741,7 +9332,7 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8753,11 +9344,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8770,21 +9361,21 @@
   <dimension ref="A1:J240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="100.33203125" style="31" customWidth="1"/>
     <col min="2" max="16384" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'MultiMon Input'!A1</f>
         <v>0</v>
@@ -8799,7 +9390,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -8811,7 +9402,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'MultiMon Input'!A2</f>
         <v>0</v>
@@ -8826,7 +9417,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -8838,7 +9429,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'MultiMon Input'!A3</f>
         <v>0</v>
@@ -8853,7 +9444,7 @@
       <c r="I6"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -8865,7 +9456,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'MultiMon Input'!A4</f>
         <v>0</v>
@@ -8880,7 +9471,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -8892,7 +9483,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'MultiMon Input'!A5</f>
         <v>0</v>
@@ -8907,7 +9498,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -8919,7 +9510,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'MultiMon Input'!A6</f>
         <v>0</v>
@@ -8934,7 +9525,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -8946,7 +9537,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'MultiMon Input'!A7</f>
         <v>0</v>
@@ -8961,7 +9552,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -8973,7 +9564,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'MultiMon Input'!A8</f>
         <v>0</v>
@@ -8988,7 +9579,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -9000,7 +9591,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>'MultiMon Input'!A9</f>
         <v>0</v>
@@ -9015,7 +9606,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -9027,7 +9618,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'MultiMon Input'!A10</f>
         <v>0</v>
@@ -9042,7 +9633,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -9054,7 +9645,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'MultiMon Input'!A11</f>
         <v>0</v>
@@ -9069,7 +9660,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -9081,7 +9672,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'MultiMon Input'!A12</f>
         <v>0</v>
@@ -9096,7 +9687,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -9108,7 +9699,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'MultiMon Input'!A13</f>
         <v>0</v>
@@ -9123,7 +9714,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -9135,7 +9726,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'MultiMon Input'!A14</f>
         <v>0</v>
@@ -9150,7 +9741,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -9162,7 +9753,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'MultiMon Input'!A15</f>
         <v>0</v>
@@ -9177,7 +9768,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -9189,7 +9780,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'MultiMon Input'!A16</f>
         <v>0</v>
@@ -9204,7 +9795,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -9216,7 +9807,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>'MultiMon Input'!A17</f>
         <v>0</v>
@@ -9231,7 +9822,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -9243,7 +9834,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>'MultiMon Input'!A18</f>
         <v>0</v>
@@ -9258,7 +9849,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9270,7 +9861,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>'MultiMon Input'!A19</f>
         <v>0</v>
@@ -9285,7 +9876,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="49"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -9297,8 +9888,11 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>'MultiMon Input'!A20</f>
+        <v>0</v>
+      </c>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9309,7 +9903,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -9321,8 +9915,11 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+    <row r="42" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>'MultiMon Input'!A21</f>
+        <v>0</v>
+      </c>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9333,7 +9930,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -9345,8 +9942,11 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>'MultiMon Input'!A22</f>
+        <v>0</v>
+      </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9357,7 +9957,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="49"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -9369,8 +9969,11 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+    <row r="46" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>'MultiMon Input'!A23</f>
+        <v>0</v>
+      </c>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9381,7 +9984,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -9393,8 +9996,11 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+    <row r="48" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>'MultiMon Input'!A24</f>
+        <v>0</v>
+      </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -9405,7 +10011,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -9417,8 +10023,11 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+    <row r="50" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>'MultiMon Input'!A25</f>
+        <v>0</v>
+      </c>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -9429,7 +10038,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="49"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -9441,8 +10050,11 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+    <row r="52" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>'MultiMon Input'!A26</f>
+        <v>0</v>
+      </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -9453,7 +10065,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="49"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -9465,8 +10077,11 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+    <row r="54" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>'MultiMon Input'!A27</f>
+        <v>0</v>
+      </c>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -9477,7 +10092,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="49"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -9489,8 +10104,11 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+    <row r="56" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>'MultiMon Input'!A28</f>
+        <v>0</v>
+      </c>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -9501,7 +10119,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="49"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -9513,8 +10131,11 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+    <row r="58" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>'MultiMon Input'!A29</f>
+        <v>0</v>
+      </c>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -9525,7 +10146,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -9537,8 +10158,11 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+    <row r="60" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>'MultiMon Input'!A30</f>
+        <v>0</v>
+      </c>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -9549,7 +10173,7 @@
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -9561,8 +10185,11 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+    <row r="62" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>'MultiMon Input'!A31</f>
+        <v>0</v>
+      </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -9573,7 +10200,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="49"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -9585,8 +10212,11 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+    <row r="64" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>'MultiMon Input'!A32</f>
+        <v>0</v>
+      </c>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -9597,7 +10227,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="49"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -9609,8 +10239,11 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+    <row r="66" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>'MultiMon Input'!A33</f>
+        <v>0</v>
+      </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -9621,7 +10254,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="49"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -9633,8 +10266,11 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
+    <row r="68" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>'MultiMon Input'!A34</f>
+        <v>0</v>
+      </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -9645,7 +10281,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="49"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -9657,517 +10293,655 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-    </row>
-    <row r="71" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>'MultiMon Input'!A35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="49"/>
     </row>
-    <row r="72" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-    </row>
-    <row r="73" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>'MultiMon Input'!A36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="49"/>
     </row>
-    <row r="74" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-    </row>
-    <row r="75" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>'MultiMon Input'!A37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="49"/>
     </row>
-    <row r="76" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-    </row>
-    <row r="77" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>'MultiMon Input'!A38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="49"/>
     </row>
-    <row r="78" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-    </row>
-    <row r="79" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>'MultiMon Input'!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="49"/>
     </row>
-    <row r="80" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-    </row>
-    <row r="81" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>'MultiMon Input'!A40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="49"/>
     </row>
-    <row r="82" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-    </row>
-    <row r="83" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>'MultiMon Input'!A41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="49"/>
     </row>
-    <row r="84" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-    </row>
-    <row r="85" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>'MultiMon Input'!A42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="49"/>
     </row>
-    <row r="86" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-    </row>
-    <row r="87" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>'MultiMon Input'!A43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="49"/>
     </row>
-    <row r="88" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-    </row>
-    <row r="89" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>'MultiMon Input'!A44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="49"/>
     </row>
-    <row r="90" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-    </row>
-    <row r="91" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>'MultiMon Input'!A45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="49"/>
     </row>
-    <row r="92" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-    </row>
-    <row r="93" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>'MultiMon Input'!A46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="49"/>
     </row>
-    <row r="94" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
-    </row>
-    <row r="95" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>'MultiMon Input'!A47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="49"/>
     </row>
-    <row r="96" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-    </row>
-    <row r="97" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>'MultiMon Input'!A48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="49"/>
     </row>
-    <row r="98" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-    </row>
-    <row r="99" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>'MultiMon Input'!A49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="49"/>
     </row>
-    <row r="100" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-    </row>
-    <row r="101" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>'MultiMon Input'!A50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="49"/>
     </row>
-    <row r="102" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
-    </row>
-    <row r="103" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>'MultiMon Input'!A51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="49"/>
     </row>
-    <row r="104" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-    </row>
-    <row r="105" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>'MultiMon Input'!A52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="49"/>
     </row>
-    <row r="106" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
-    </row>
-    <row r="107" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>'MultiMon Input'!A53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="49"/>
     </row>
-    <row r="108" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-    </row>
-    <row r="109" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f>'MultiMon Input'!A54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="49"/>
     </row>
-    <row r="110" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-    </row>
-    <row r="111" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f>'MultiMon Input'!A55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="49"/>
     </row>
-    <row r="112" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-    </row>
-    <row r="113" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f>'MultiMon Input'!A56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="49"/>
     </row>
-    <row r="114" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-    </row>
-    <row r="115" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>'MultiMon Input'!A57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="49"/>
     </row>
-    <row r="116" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-    </row>
-    <row r="117" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f>'MultiMon Input'!A58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="49"/>
     </row>
-    <row r="118" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-    </row>
-    <row r="119" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>'MultiMon Input'!A59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="49"/>
     </row>
-    <row r="120" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-    </row>
-    <row r="121" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f>'MultiMon Input'!A60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="49"/>
     </row>
-    <row r="122" spans="1:1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f>'MultiMon Input'!A61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="49"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f>'MultiMon Input'!A62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="49"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f>'MultiMon Input'!A63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="49"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f>'MultiMon Input'!A64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="49"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f>'MultiMon Input'!A65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="49"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f>'MultiMon Input'!A66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="49"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f>'MultiMon Input'!A67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="49"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f>'MultiMon Input'!A68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="49"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f>'MultiMon Input'!A69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="49"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f>'MultiMon Input'!A70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="49"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f>'MultiMon Input'!A71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="49"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f>'MultiMon Input'!A72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="49"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f>'MultiMon Input'!A73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="49"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f>'MultiMon Input'!A74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="49"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f>'MultiMon Input'!A75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="49"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f>'MultiMon Input'!A76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="49"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f>'MultiMon Input'!A77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="49"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f>'MultiMon Input'!A78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="49"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f>'MultiMon Input'!A79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="49"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>'MultiMon Input'!A80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
   </sheetData>
@@ -10185,210 +10959,213 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108.1640625" customWidth="1"/>
+    <col min="1" max="1" width="108.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="50"/>
     </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="50"/>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="50"/>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="50"/>
     </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="50"/>
     </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="50"/>
     </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
     </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
     </row>
-    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="50"/>
     </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="50"/>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="50"/>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="50"/>
     </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
     </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
     </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
     </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
     </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="50"/>
     </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="50"/>
     </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="50"/>
     </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
     </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
     </row>
-    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
     </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
     </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="50"/>
     </row>
-    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
     </row>
-    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
     </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="50"/>
     </row>
-    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="50"/>
     </row>
-    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="50"/>
     </row>
-    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="50"/>
     </row>
-    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AA260"/>
+  <dimension ref="A1:AB260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>112</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="30" t="s">
         <v>111</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>110</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>113</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="J1" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -10405,8 +11182,9 @@
       <c r="Y1" s="30"/>
       <c r="Z1" s="30"/>
       <c r="AA1" s="30"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="AB1" s="30"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -10443,11 +11221,15 @@
         <v/>
       </c>
       <c r="J2" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K2" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(B3&lt;&gt;"",A2+1,"")</f>
         <v/>
@@ -10485,11 +11267,15 @@
         <v/>
       </c>
       <c r="J3" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K3" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10527,11 +11313,15 @@
         <v/>
       </c>
       <c r="J4" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K4" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10569,11 +11359,15 @@
         <v/>
       </c>
       <c r="J5" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K5" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10611,11 +11405,15 @@
         <v/>
       </c>
       <c r="J6" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K6" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10653,11 +11451,15 @@
         <v/>
       </c>
       <c r="J7" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K7" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10695,11 +11497,15 @@
         <v/>
       </c>
       <c r="J8" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K8" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10737,11 +11543,15 @@
         <v/>
       </c>
       <c r="J9" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K9" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10779,11 +11589,15 @@
         <v/>
       </c>
       <c r="J10" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K10" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10821,11 +11635,15 @@
         <v/>
       </c>
       <c r="J11" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K11" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10863,11 +11681,15 @@
         <v/>
       </c>
       <c r="J12" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K12" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10905,11 +11727,15 @@
         <v/>
       </c>
       <c r="J13" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10947,11 +11773,15 @@
         <v/>
       </c>
       <c r="J14" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K14" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10989,11 +11819,15 @@
         <v/>
       </c>
       <c r="J15" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K15" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11031,11 +11865,15 @@
         <v/>
       </c>
       <c r="J16" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K16" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11073,11 +11911,15 @@
         <v/>
       </c>
       <c r="J17" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K17" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11115,11 +11957,15 @@
         <v/>
       </c>
       <c r="J18" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11157,11 +12003,15 @@
         <v/>
       </c>
       <c r="J19" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11199,11 +12049,15 @@
         <v/>
       </c>
       <c r="J20" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11241,11 +12095,15 @@
         <v/>
       </c>
       <c r="J21" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K21" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11283,11 +12141,15 @@
         <v/>
       </c>
       <c r="J22" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11325,11 +12187,15 @@
         <v/>
       </c>
       <c r="J23" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K23" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11367,11 +12233,15 @@
         <v/>
       </c>
       <c r="J24" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K24" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11409,11 +12279,15 @@
         <v/>
       </c>
       <c r="J25" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K25" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11451,11 +12325,15 @@
         <v/>
       </c>
       <c r="J26" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11493,11 +12371,15 @@
         <v/>
       </c>
       <c r="J27" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11535,11 +12417,15 @@
         <v/>
       </c>
       <c r="J28" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11577,11 +12463,15 @@
         <v/>
       </c>
       <c r="J29" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11619,11 +12509,15 @@
         <v/>
       </c>
       <c r="J30" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11661,11 +12555,15 @@
         <v/>
       </c>
       <c r="J31" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K31" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11703,11 +12601,15 @@
         <v/>
       </c>
       <c r="J32" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K32" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11745,11 +12647,15 @@
         <v/>
       </c>
       <c r="J33" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11787,11 +12693,15 @@
         <v/>
       </c>
       <c r="J34" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11829,11 +12739,15 @@
         <v/>
       </c>
       <c r="J35" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11871,11 +12785,15 @@
         <v/>
       </c>
       <c r="J36" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K36" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11913,11 +12831,15 @@
         <v/>
       </c>
       <c r="J37" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11955,11 +12877,15 @@
         <v/>
       </c>
       <c r="J38" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K38" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11997,11 +12923,15 @@
         <v/>
       </c>
       <c r="J39" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K39" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12039,11 +12969,15 @@
         <v/>
       </c>
       <c r="J40" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12081,11 +13015,15 @@
         <v/>
       </c>
       <c r="J41" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K41" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12123,11 +13061,15 @@
         <v/>
       </c>
       <c r="J42" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K42" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12165,11 +13107,15 @@
         <v/>
       </c>
       <c r="J43" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K43" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12207,11 +13153,15 @@
         <v/>
       </c>
       <c r="J44" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12249,11 +13199,15 @@
         <v/>
       </c>
       <c r="J45" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K45" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12291,11 +13245,15 @@
         <v/>
       </c>
       <c r="J46" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K46" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12333,11 +13291,15 @@
         <v/>
       </c>
       <c r="J47" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12375,11 +13337,15 @@
         <v/>
       </c>
       <c r="J48" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12417,11 +13383,15 @@
         <v/>
       </c>
       <c r="J49" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K49" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12459,11 +13429,15 @@
         <v/>
       </c>
       <c r="J50" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K50" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12501,11 +13475,15 @@
         <v/>
       </c>
       <c r="J51" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12543,11 +13521,15 @@
         <v/>
       </c>
       <c r="J52" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K52" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12585,11 +13567,15 @@
         <v/>
       </c>
       <c r="J53" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K53" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12627,11 +13613,15 @@
         <v/>
       </c>
       <c r="J54" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K54" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12669,11 +13659,15 @@
         <v/>
       </c>
       <c r="J55" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12711,11 +13705,15 @@
         <v/>
       </c>
       <c r="J56" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12753,11 +13751,15 @@
         <v/>
       </c>
       <c r="J57" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K57" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12795,11 +13797,15 @@
         <v/>
       </c>
       <c r="J58" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K58" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12837,11 +13843,15 @@
         <v/>
       </c>
       <c r="J59" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12879,11 +13889,15 @@
         <v/>
       </c>
       <c r="J60" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K60" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12921,11 +13935,15 @@
         <v/>
       </c>
       <c r="J61" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K61" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -12963,11 +13981,15 @@
         <v/>
       </c>
       <c r="J62" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K62" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13005,11 +14027,15 @@
         <v/>
       </c>
       <c r="J63" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13047,11 +14073,15 @@
         <v/>
       </c>
       <c r="J64" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13089,11 +14119,15 @@
         <v/>
       </c>
       <c r="J65" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K65" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -13131,11 +14165,15 @@
         <v/>
       </c>
       <c r="J66" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K66" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="str">
         <f t="shared" ref="A67:A75" si="1">IF(B67&lt;&gt;"",A66+1,"")</f>
         <v/>
@@ -13173,11 +14211,15 @@
         <v/>
       </c>
       <c r="J67" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K67" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13215,11 +14257,15 @@
         <v/>
       </c>
       <c r="J68" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K68" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13257,11 +14303,15 @@
         <v/>
       </c>
       <c r="J69" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K69" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13299,11 +14349,15 @@
         <v/>
       </c>
       <c r="J70" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K70" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13341,11 +14395,15 @@
         <v/>
       </c>
       <c r="J71" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K71" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13383,11 +14441,15 @@
         <v/>
       </c>
       <c r="J72" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K72" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13425,11 +14487,15 @@
         <v/>
       </c>
       <c r="J73" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K73" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13467,11 +14533,15 @@
         <v/>
       </c>
       <c r="J74" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K74" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -13509,11 +14579,15 @@
         <v/>
       </c>
       <c r="J75" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K75" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="str">
         <f>IF(B76&lt;&gt;"",A75+1,"")</f>
         <v/>
@@ -13551,11 +14625,15 @@
         <v/>
       </c>
       <c r="J76" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K76" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="str">
         <f>IF(B77&lt;&gt;"",A76+1,"")</f>
         <v/>
@@ -13593,11 +14671,15 @@
         <v/>
       </c>
       <c r="J77" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K77" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="str">
         <f t="shared" ref="A78:A80" si="2">IF(B78&lt;&gt;"",A77+1,"")</f>
         <v/>
@@ -13635,11 +14717,15 @@
         <v/>
       </c>
       <c r="J78" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K78" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13677,11 +14763,15 @@
         <v/>
       </c>
       <c r="J79" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K79" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -13719,11 +14809,15 @@
         <v/>
       </c>
       <c r="J80" s="19" t="str">
+        <f>IFERROR(TLM!BD:BD,"")</f>
+        <v/>
+      </c>
+      <c r="K80" s="19" t="str">
         <f>IFERROR(TLM!AJ:AJ,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>106</v>
       </c>
@@ -13745,1079 +14839,1079 @@
       <c r="H81" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="K81" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G82" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G83" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G84" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G85" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G86" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G87" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G88" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G89" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G90" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G91" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G92" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G93" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G94" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G95" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G96" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G101" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G133" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G135" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G136" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G162" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G163" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G164" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G165" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G166" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G167" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G168" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G169" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G170" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G171" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G172" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G173" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G174" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G176" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G177" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G178" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G179" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G180" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G181" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G182" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G183" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G184" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G185" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G186" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G187" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G188" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G189" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G190" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G191" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G192" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G193" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G194" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G195" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G196" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G197" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G198" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G199" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G200" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G201" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G202" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G203" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G204" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G205" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G206" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G207" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G208" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G209" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G210" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G211" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G212" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G213" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G214" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G215" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G216" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G217" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G218" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G219" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G220" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G221" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G222" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G223" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G224" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G225" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G226" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G227" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G228" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G229" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G230" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G231" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G232" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G233" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G234" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G235" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G236" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G237" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G238" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G239" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G240" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G241" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G242" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G243" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G244" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G245" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G246" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G247" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G248" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G249" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G250" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G251" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G252" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G253" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G254" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G255" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G256" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G257" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G258" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G259" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G260" s="19">
         <f>IFERROR(TLM!$AB:$AB,"")</f>
         <v>0</v>
@@ -14834,63 +15928,63 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CR149"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="33" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="33" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="8.83203125" style="33" customWidth="1"/>
-    <col min="13" max="14" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" style="33" customWidth="1"/>
-    <col min="17" max="18" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="8.83203125" style="33" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="33" customWidth="1"/>
-    <col min="25" max="26" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="8.83203125" style="33" customWidth="1"/>
-    <col min="29" max="30" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="8.83203125" style="33" customWidth="1"/>
-    <col min="33" max="34" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="35" max="36" width="8.83203125" style="33" customWidth="1"/>
-    <col min="37" max="38" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="8.83203125" style="33" customWidth="1"/>
-    <col min="41" max="42" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="8.83203125" style="33" customWidth="1"/>
-    <col min="45" max="46" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="47" max="48" width="8.83203125" style="33" customWidth="1"/>
-    <col min="49" max="50" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="51" max="52" width="8.83203125" style="33" customWidth="1"/>
-    <col min="53" max="54" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="55" max="56" width="8.83203125" style="33" customWidth="1"/>
-    <col min="57" max="58" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="59" max="60" width="8.83203125" style="33" customWidth="1"/>
-    <col min="61" max="62" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="63" max="64" width="8.83203125" style="33" customWidth="1"/>
-    <col min="65" max="66" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="67" max="68" width="8.83203125" style="33" customWidth="1"/>
-    <col min="69" max="70" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="71" max="72" width="8.83203125" style="33" customWidth="1"/>
-    <col min="73" max="74" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="75" max="76" width="8.83203125" style="33" customWidth="1"/>
-    <col min="77" max="78" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="79" max="80" width="8.83203125" style="33" customWidth="1"/>
-    <col min="81" max="82" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="83" max="84" width="8.83203125" style="33" customWidth="1"/>
-    <col min="85" max="86" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="87" max="88" width="8.83203125" style="33" customWidth="1"/>
-    <col min="89" max="90" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="91" max="92" width="8.83203125" style="33" customWidth="1"/>
-    <col min="93" max="94" width="8.83203125" style="33" hidden="1" customWidth="1"/>
-    <col min="95" max="16384" width="8.83203125" style="33"/>
+    <col min="1" max="2" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="33" customWidth="1"/>
+    <col min="5" max="6" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="33" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="33" customWidth="1"/>
+    <col min="13" max="14" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="8.77734375" style="33" customWidth="1"/>
+    <col min="17" max="18" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="8.77734375" style="33" customWidth="1"/>
+    <col min="21" max="22" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="8.77734375" style="33" customWidth="1"/>
+    <col min="25" max="26" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="27" max="28" width="8.77734375" style="33" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.77734375" style="33" customWidth="1"/>
+    <col min="33" max="34" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="8.77734375" style="33" customWidth="1"/>
+    <col min="37" max="38" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="39" max="40" width="8.77734375" style="33" customWidth="1"/>
+    <col min="41" max="42" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="43" max="44" width="8.77734375" style="33" customWidth="1"/>
+    <col min="45" max="46" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="8.77734375" style="33" customWidth="1"/>
+    <col min="49" max="50" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="51" max="52" width="8.77734375" style="33" customWidth="1"/>
+    <col min="53" max="54" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="55" max="56" width="8.77734375" style="33" customWidth="1"/>
+    <col min="57" max="58" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="59" max="60" width="8.77734375" style="33" customWidth="1"/>
+    <col min="61" max="62" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="63" max="64" width="8.77734375" style="33" customWidth="1"/>
+    <col min="65" max="66" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="67" max="68" width="8.77734375" style="33" customWidth="1"/>
+    <col min="69" max="70" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="71" max="72" width="8.77734375" style="33" customWidth="1"/>
+    <col min="73" max="74" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="75" max="76" width="8.77734375" style="33" customWidth="1"/>
+    <col min="77" max="78" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="79" max="80" width="8.77734375" style="33" customWidth="1"/>
+    <col min="81" max="82" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="83" max="84" width="8.77734375" style="33" customWidth="1"/>
+    <col min="85" max="86" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="87" max="88" width="8.77734375" style="33" customWidth="1"/>
+    <col min="89" max="90" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="91" max="92" width="8.77734375" style="33" customWidth="1"/>
+    <col min="93" max="94" width="8.77734375" style="33" hidden="1" customWidth="1"/>
+    <col min="95" max="16384" width="8.77734375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:96" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>106</v>
       </c>
@@ -14934,13 +16028,13 @@
         <v>9</v>
       </c>
       <c r="X1" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="36" t="s">
         <v>10</v>
       </c>
       <c r="AB1" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="36" t="s">
         <v>11</v>
@@ -15045,7 +16139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>104</v>
       </c>
@@ -15407,7 +16501,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>104</v>
       </c>
@@ -15769,7 +16863,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
@@ -16131,7 +17225,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>104</v>
       </c>
@@ -16493,7 +17587,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -16855,7 +17949,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
@@ -17217,7 +18311,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>104</v>
       </c>
@@ -17579,7 +18673,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>104</v>
       </c>
@@ -17941,7 +19035,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>104</v>
       </c>
@@ -18303,7 +19397,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>104</v>
       </c>
@@ -18665,7 +19759,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>104</v>
       </c>
@@ -19027,7 +20121,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>104</v>
       </c>
@@ -19389,7 +20483,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>104</v>
       </c>
@@ -19751,7 +20845,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>104</v>
       </c>
@@ -20113,7 +21207,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>104</v>
       </c>
@@ -20475,7 +21569,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>104</v>
       </c>
@@ -20837,7 +21931,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>104</v>
       </c>
@@ -21199,7 +22293,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>104</v>
       </c>
@@ -21561,7 +22655,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>104</v>
       </c>
@@ -21923,7 +23017,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>104</v>
       </c>
@@ -22285,7 +23379,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>104</v>
       </c>
@@ -22647,7 +23741,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>104</v>
       </c>
@@ -23009,7 +24103,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>104</v>
       </c>
@@ -23371,7 +24465,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>104</v>
       </c>
@@ -23733,7 +24827,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>104</v>
       </c>
@@ -24095,7 +25189,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>104</v>
       </c>
@@ -24457,7 +25551,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>104</v>
       </c>
@@ -24819,7 +25913,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>104</v>
       </c>
@@ -25181,7 +26275,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>104</v>
       </c>
@@ -25543,7 +26637,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>104</v>
       </c>
@@ -25905,7 +26999,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>104</v>
       </c>
@@ -26267,7 +27361,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>104</v>
       </c>
@@ -26629,7 +27723,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>104</v>
       </c>
@@ -26991,7 +28085,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>104</v>
       </c>
@@ -27353,7 +28447,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>104</v>
       </c>
@@ -27715,7 +28809,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>104</v>
       </c>
@@ -28077,7 +29171,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>104</v>
       </c>
@@ -28439,7 +29533,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>104</v>
       </c>
@@ -28801,7 +29895,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>104</v>
       </c>
@@ -29163,7 +30257,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>104</v>
       </c>
@@ -29525,7 +30619,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>104</v>
       </c>
@@ -29887,7 +30981,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>104</v>
       </c>
@@ -30249,7 +31343,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>104</v>
       </c>
@@ -30611,7 +31705,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>104</v>
       </c>
@@ -30973,7 +32067,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>104</v>
       </c>
@@ -31335,7 +32429,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>104</v>
       </c>
@@ -31697,7 +32791,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>104</v>
       </c>
@@ -32059,7 +33153,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>104</v>
       </c>
@@ -32421,7 +33515,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>104</v>
       </c>
@@ -32783,7 +33877,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>104</v>
       </c>
@@ -33145,7 +34239,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>104</v>
       </c>
@@ -33507,7 +34601,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>104</v>
       </c>
@@ -33869,7 +34963,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>104</v>
       </c>
@@ -34231,7 +35325,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>104</v>
       </c>
@@ -34593,7 +35687,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>104</v>
       </c>
@@ -34955,7 +36049,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>104</v>
       </c>
@@ -35317,7 +36411,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>104</v>
       </c>
@@ -35679,7 +36773,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>104</v>
       </c>
@@ -36041,7 +37135,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>104</v>
       </c>
@@ -36403,7 +37497,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>104</v>
       </c>
@@ -36765,7 +37859,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>104</v>
       </c>
@@ -37127,7 +38221,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>104</v>
       </c>
@@ -37489,7 +38583,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>104</v>
       </c>
@@ -37851,7 +38945,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>104</v>
       </c>
@@ -38213,7 +39307,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>104</v>
       </c>
@@ -38575,7 +39669,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>104</v>
       </c>
@@ -38937,7 +40031,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>104</v>
       </c>
@@ -39299,7 +40393,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>104</v>
       </c>
@@ -39661,7 +40755,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>104</v>
       </c>
@@ -40023,7 +41117,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>104</v>
       </c>
@@ -40385,7 +41479,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>104</v>
       </c>
@@ -40747,7 +41841,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>104</v>
       </c>
@@ -41109,7 +42203,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>104</v>
       </c>
@@ -41471,7 +42565,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>104</v>
       </c>
@@ -41833,7 +42927,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>104</v>
       </c>
@@ -42195,7 +43289,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>104</v>
       </c>
@@ -42557,7 +43651,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>104</v>
       </c>
@@ -42919,7 +44013,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>104</v>
       </c>
@@ -43281,7 +44375,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>104</v>
       </c>
@@ -43643,7 +44737,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="C81" s="44"/>
       <c r="D81" s="45"/>
@@ -43740,7 +44834,7 @@
       <c r="CQ81" s="44"/>
       <c r="CR81" s="47"/>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="C82" s="44"/>
       <c r="D82" s="45"/>
@@ -43837,7 +44931,7 @@
       <c r="CQ82" s="44"/>
       <c r="CR82" s="47"/>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="C83" s="44"/>
       <c r="D83" s="45"/>
@@ -43934,7 +45028,7 @@
       <c r="CQ83" s="44"/>
       <c r="CR83" s="47"/>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="C84" s="44"/>
       <c r="D84" s="45"/>
@@ -44031,7 +45125,7 @@
       <c r="CQ84" s="44"/>
       <c r="CR84" s="47"/>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="C85" s="44"/>
       <c r="D85" s="45"/>
@@ -44128,7 +45222,7 @@
       <c r="CQ85" s="44"/>
       <c r="CR85" s="47"/>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="C86" s="44"/>
       <c r="D86" s="45"/>
@@ -44225,7 +45319,7 @@
       <c r="CQ86" s="44"/>
       <c r="CR86" s="47"/>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="C87" s="44"/>
       <c r="D87" s="45"/>
@@ -44322,7 +45416,7 @@
       <c r="CQ87" s="44"/>
       <c r="CR87" s="47"/>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="C88" s="44"/>
       <c r="D88" s="45"/>
@@ -44419,7 +45513,7 @@
       <c r="CQ88" s="44"/>
       <c r="CR88" s="47"/>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="C89" s="44"/>
       <c r="D89" s="45"/>
@@ -44516,7 +45610,7 @@
       <c r="CQ89" s="44"/>
       <c r="CR89" s="47"/>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="C90" s="44"/>
       <c r="D90" s="45"/>
@@ -44613,7 +45707,7 @@
       <c r="CQ90" s="44"/>
       <c r="CR90" s="47"/>
     </row>
-    <row r="91" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="C91" s="44"/>
       <c r="D91" s="45"/>
@@ -44710,7 +45804,7 @@
       <c r="CQ91" s="44"/>
       <c r="CR91" s="47"/>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="C92" s="44"/>
       <c r="D92" s="45"/>
@@ -44807,7 +45901,7 @@
       <c r="CQ92" s="44"/>
       <c r="CR92" s="47"/>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="C93" s="44"/>
       <c r="D93" s="45"/>
@@ -44904,7 +45998,7 @@
       <c r="CQ93" s="44"/>
       <c r="CR93" s="47"/>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="C94" s="44"/>
       <c r="D94" s="45"/>
@@ -45001,7 +46095,7 @@
       <c r="CQ94" s="44"/>
       <c r="CR94" s="47"/>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="C95" s="44"/>
       <c r="D95" s="45"/>
@@ -45098,7 +46192,7 @@
       <c r="CQ95" s="44"/>
       <c r="CR95" s="47"/>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="C96" s="44"/>
       <c r="D96" s="45"/>
@@ -45195,7 +46289,7 @@
       <c r="CQ96" s="44"/>
       <c r="CR96" s="47"/>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="C97" s="44"/>
       <c r="D97" s="45"/>
@@ -45292,7 +46386,7 @@
       <c r="CQ97" s="44"/>
       <c r="CR97" s="47"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="C98" s="44"/>
       <c r="D98" s="45"/>
@@ -45389,7 +46483,7 @@
       <c r="CQ98" s="44"/>
       <c r="CR98" s="47"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99" s="32"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45"/>
@@ -45486,7 +46580,7 @@
       <c r="CQ99" s="44"/>
       <c r="CR99" s="47"/>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="C100" s="44"/>
       <c r="D100" s="45"/>
@@ -45583,7 +46677,7 @@
       <c r="CQ100" s="44"/>
       <c r="CR100" s="47"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
       <c r="C101" s="44"/>
       <c r="D101" s="45"/>
@@ -45680,7 +46774,7 @@
       <c r="CQ101" s="44"/>
       <c r="CR101" s="47"/>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="32"/>
       <c r="C102" s="44"/>
       <c r="D102" s="45"/>
@@ -45777,7 +46871,7 @@
       <c r="CQ102" s="44"/>
       <c r="CR102" s="47"/>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
       <c r="C103" s="44"/>
       <c r="D103" s="45"/>
@@ -45874,7 +46968,7 @@
       <c r="CQ103" s="44"/>
       <c r="CR103" s="47"/>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
       <c r="C104" s="44"/>
       <c r="D104" s="45"/>
@@ -45971,7 +47065,7 @@
       <c r="CQ104" s="44"/>
       <c r="CR104" s="47"/>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="C105" s="44"/>
       <c r="D105" s="45"/>
@@ -46068,7 +47162,7 @@
       <c r="CQ105" s="44"/>
       <c r="CR105" s="47"/>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="C106" s="44"/>
       <c r="D106" s="45"/>
@@ -46165,7 +47259,7 @@
       <c r="CQ106" s="44"/>
       <c r="CR106" s="47"/>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="32"/>
       <c r="C107" s="44"/>
       <c r="D107" s="45"/>
@@ -46262,7 +47356,7 @@
       <c r="CQ107" s="44"/>
       <c r="CR107" s="47"/>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
       <c r="C108" s="44"/>
       <c r="D108" s="45"/>
@@ -46359,7 +47453,7 @@
       <c r="CQ108" s="44"/>
       <c r="CR108" s="47"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
       <c r="C109" s="44"/>
       <c r="D109" s="45"/>
@@ -46456,7 +47550,7 @@
       <c r="CQ109" s="44"/>
       <c r="CR109" s="47"/>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A110" s="32"/>
       <c r="C110" s="44"/>
       <c r="D110" s="45"/>
@@ -46553,7 +47647,7 @@
       <c r="CQ110" s="44"/>
       <c r="CR110" s="47"/>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A111" s="32"/>
       <c r="C111" s="44"/>
       <c r="D111" s="45"/>
@@ -46650,7 +47744,7 @@
       <c r="CQ111" s="44"/>
       <c r="CR111" s="47"/>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A112" s="32"/>
       <c r="C112" s="44"/>
       <c r="D112" s="45"/>
@@ -46747,7 +47841,7 @@
       <c r="CQ112" s="44"/>
       <c r="CR112" s="47"/>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A113" s="32"/>
       <c r="C113" s="44"/>
       <c r="D113" s="45"/>
@@ -46844,7 +47938,7 @@
       <c r="CQ113" s="44"/>
       <c r="CR113" s="47"/>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A114" s="32"/>
       <c r="C114" s="44"/>
       <c r="D114" s="45"/>
@@ -46941,7 +48035,7 @@
       <c r="CQ114" s="44"/>
       <c r="CR114" s="47"/>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A115" s="32"/>
       <c r="C115" s="44"/>
       <c r="D115" s="45"/>
@@ -47038,7 +48132,7 @@
       <c r="CQ115" s="44"/>
       <c r="CR115" s="47"/>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A116" s="32"/>
       <c r="C116" s="44"/>
       <c r="D116" s="45"/>
@@ -47135,7 +48229,7 @@
       <c r="CQ116" s="44"/>
       <c r="CR116" s="47"/>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A117" s="32"/>
       <c r="C117" s="44"/>
       <c r="D117" s="45"/>
@@ -47232,7 +48326,7 @@
       <c r="CQ117" s="44"/>
       <c r="CR117" s="47"/>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
       <c r="E118" s="44"/>
@@ -47328,7 +48422,7 @@
       <c r="CQ118" s="44"/>
       <c r="CR118" s="44"/>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
       <c r="E119" s="44"/>
@@ -47424,7 +48518,7 @@
       <c r="CQ119" s="44"/>
       <c r="CR119" s="44"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C120" s="44"/>
       <c r="D120" s="44"/>
       <c r="E120" s="44"/>
@@ -47520,7 +48614,7 @@
       <c r="CQ120" s="44"/>
       <c r="CR120" s="44"/>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C121" s="44"/>
       <c r="D121" s="44"/>
       <c r="E121" s="44"/>
@@ -47616,7 +48710,7 @@
       <c r="CQ121" s="44"/>
       <c r="CR121" s="44"/>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
       <c r="E122" s="44"/>
@@ -47712,7 +48806,7 @@
       <c r="CQ122" s="44"/>
       <c r="CR122" s="44"/>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
       <c r="E123" s="44"/>
@@ -47808,7 +48902,7 @@
       <c r="CQ123" s="44"/>
       <c r="CR123" s="44"/>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
       <c r="E124" s="44"/>
@@ -47904,7 +48998,7 @@
       <c r="CQ124" s="44"/>
       <c r="CR124" s="44"/>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
       <c r="E125" s="44"/>
@@ -48000,7 +49094,7 @@
       <c r="CQ125" s="44"/>
       <c r="CR125" s="44"/>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
       <c r="E126" s="44"/>
@@ -48096,7 +49190,7 @@
       <c r="CQ126" s="44"/>
       <c r="CR126" s="44"/>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
       <c r="E127" s="44"/>
@@ -48192,7 +49286,7 @@
       <c r="CQ127" s="44"/>
       <c r="CR127" s="44"/>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.25">
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
       <c r="E128" s="44"/>
@@ -48288,7 +49382,7 @@
       <c r="CQ128" s="44"/>
       <c r="CR128" s="44"/>
     </row>
-    <row r="129" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
       <c r="E129" s="44"/>
@@ -48384,7 +49478,7 @@
       <c r="CQ129" s="44"/>
       <c r="CR129" s="44"/>
     </row>
-    <row r="130" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
       <c r="E130" s="44"/>
@@ -48480,7 +49574,7 @@
       <c r="CQ130" s="44"/>
       <c r="CR130" s="44"/>
     </row>
-    <row r="131" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
       <c r="E131" s="44"/>
@@ -48576,7 +49670,7 @@
       <c r="CQ131" s="44"/>
       <c r="CR131" s="44"/>
     </row>
-    <row r="132" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
       <c r="E132" s="44"/>
@@ -48672,7 +49766,7 @@
       <c r="CQ132" s="44"/>
       <c r="CR132" s="44"/>
     </row>
-    <row r="133" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
       <c r="E133" s="44"/>
@@ -48768,7 +49862,7 @@
       <c r="CQ133" s="44"/>
       <c r="CR133" s="44"/>
     </row>
-    <row r="134" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
       <c r="E134" s="44"/>
@@ -48864,7 +49958,7 @@
       <c r="CQ134" s="44"/>
       <c r="CR134" s="44"/>
     </row>
-    <row r="135" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
       <c r="E135" s="44"/>
@@ -48960,7 +50054,7 @@
       <c r="CQ135" s="44"/>
       <c r="CR135" s="44"/>
     </row>
-    <row r="136" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
       <c r="E136" s="44"/>
@@ -49056,7 +50150,7 @@
       <c r="CQ136" s="44"/>
       <c r="CR136" s="44"/>
     </row>
-    <row r="137" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
       <c r="E137" s="44"/>
@@ -49152,7 +50246,7 @@
       <c r="CQ137" s="44"/>
       <c r="CR137" s="44"/>
     </row>
-    <row r="138" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
       <c r="E138" s="44"/>
@@ -49248,7 +50342,7 @@
       <c r="CQ138" s="44"/>
       <c r="CR138" s="44"/>
     </row>
-    <row r="139" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
       <c r="E139" s="44"/>
@@ -49344,7 +50438,7 @@
       <c r="CQ139" s="44"/>
       <c r="CR139" s="44"/>
     </row>
-    <row r="140" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
       <c r="E140" s="44"/>
@@ -49440,7 +50534,7 @@
       <c r="CQ140" s="44"/>
       <c r="CR140" s="44"/>
     </row>
-    <row r="141" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
       <c r="E141" s="44"/>
@@ -49536,7 +50630,7 @@
       <c r="CQ141" s="44"/>
       <c r="CR141" s="44"/>
     </row>
-    <row r="142" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
       <c r="E142" s="44"/>
@@ -49632,7 +50726,7 @@
       <c r="CQ142" s="44"/>
       <c r="CR142" s="44"/>
     </row>
-    <row r="143" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
       <c r="E143" s="44"/>
@@ -49728,7 +50822,7 @@
       <c r="CQ143" s="44"/>
       <c r="CR143" s="44"/>
     </row>
-    <row r="144" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
       <c r="E144" s="44"/>
@@ -49824,7 +50918,7 @@
       <c r="CQ144" s="44"/>
       <c r="CR144" s="44"/>
     </row>
-    <row r="145" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
       <c r="E145" s="44"/>
@@ -49920,7 +51014,7 @@
       <c r="CQ145" s="44"/>
       <c r="CR145" s="44"/>
     </row>
-    <row r="146" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
       <c r="E146" s="44"/>
@@ -50016,7 +51110,7 @@
       <c r="CQ146" s="44"/>
       <c r="CR146" s="44"/>
     </row>
-    <row r="147" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
       <c r="E147" s="44"/>
@@ -50112,7 +51206,7 @@
       <c r="CQ147" s="44"/>
       <c r="CR147" s="44"/>
     </row>
-    <row r="148" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
       <c r="E148" s="44"/>
@@ -50208,7 +51302,7 @@
       <c r="CQ148" s="44"/>
       <c r="CR148" s="44"/>
     </row>
-    <row r="149" spans="3:96" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:96" x14ac:dyDescent="0.25">
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
       <c r="E149" s="44"/>
@@ -50320,15 +51414,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
@@ -50348,7 +51442,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>37430</v>
       </c>
@@ -50368,7 +51462,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>96</v>
       </c>
@@ -50388,7 +51482,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -50408,7 +51502,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -50440,7 +51534,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
@@ -50474,7 +51568,7 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
@@ -50508,7 +51602,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
@@ -50542,7 +51636,7 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>7</v>
       </c>
@@ -50576,7 +51670,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
@@ -50610,7 +51704,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
@@ -50644,7 +51738,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
@@ -50678,7 +51772,7 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>11</v>
       </c>
@@ -50710,7 +51804,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
@@ -50744,7 +51838,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
@@ -50776,7 +51870,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
@@ -50810,7 +51904,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
@@ -50842,7 +51936,7 @@
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>16</v>
       </c>
@@ -50874,7 +51968,7 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>17</v>
       </c>
@@ -50906,7 +52000,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>18</v>
       </c>
@@ -50938,7 +52032,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
@@ -50970,7 +52064,7 @@
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>20</v>
       </c>
@@ -51004,7 +52098,7 @@
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>21</v>
       </c>
@@ -51038,7 +52132,7 @@
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>22</v>
       </c>
@@ -51072,7 +52166,7 @@
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -51106,7 +52200,7 @@
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>24</v>
       </c>
@@ -51140,7 +52234,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
@@ -51174,7 +52268,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>26</v>
       </c>
@@ -51208,7 +52302,7 @@
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>27</v>
       </c>
@@ -51242,16 +52336,16 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="32" spans="1:16" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K33" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L33" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>72</v>
       </c>
@@ -51265,7 +52359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>76</v>
       </c>
@@ -51279,7 +52373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
         <v>80</v>
       </c>
@@ -51293,7 +52387,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>84</v>
       </c>
@@ -51307,7 +52401,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
@@ -51321,7 +52415,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="s">
         <v>92</v>
       </c>
@@ -51353,959 +52447,959 @@
       <selection sqref="A1:A190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.5" customWidth="1"/>
+    <col min="1" max="1" width="102.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A163" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
